--- a/Data/aearep-163/candidatepackages.xlsx
+++ b/Data/aearep-163/candidatepackages.xlsx
@@ -14,32 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
+    <t>egenmore</t>
   </si>
   <si>
     <t>unique</t>
   </si>
   <si>
-    <t>egenmore</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
     <t>fs</t>
   </si>
   <si>
+    <t>rd</t>
+  </si>
+  <si>
     <t>table1</t>
   </si>
   <si>
-    <t>rd</t>
-  </si>
-  <si>
     <t>oaxaca</t>
   </si>
   <si>
@@ -49,42 +46,36 @@
     <t>texdoc</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
+    <t>mean2</t>
   </si>
   <si>
     <t>matsave</t>
   </si>
   <si>
-    <t>mean2</t>
-  </si>
-  <si>
     <t>expgen</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
     <t>usepackage</t>
   </si>
   <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>split</t>
-  </si>
-  <si>
     <t>rev</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>ted</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>extreme</t>
   </si>
   <si>
@@ -106,15 +97,6 @@
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>usd</t>
   </si>
   <si>
@@ -130,9 +112,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-163</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-163/111381</t>
   </si>
   <si>
@@ -140,12 +119,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>master_rep.do</t>
@@ -207,7 +180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -215,13 +188,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -229,7 +202,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -241,7 +214,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -253,7 +226,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -265,7 +238,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -277,7 +250,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -289,7 +262,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -301,7 +274,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -313,7 +286,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -325,7 +298,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -337,7 +310,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -349,7 +322,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -361,10 +334,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.12826445698738098</v>
       </c>
       <c r="D13"/>
     </row>
@@ -373,10 +346,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>315</v>
+        <v>563</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D14"/>
     </row>
@@ -385,10 +358,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>316</v>
+        <v>614</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.20297521352767944</v>
       </c>
       <c r="D15"/>
     </row>
@@ -397,10 +370,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>391</v>
+        <v>632</v>
       </c>
       <c r="C16">
-        <v>0.12964190542697906</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D16"/>
     </row>
@@ -409,10 +382,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>504</v>
+        <v>739</v>
       </c>
       <c r="C17">
-        <v>0.16710875928401947</v>
+        <v>0.24429751932621002</v>
       </c>
       <c r="D17"/>
     </row>
@@ -421,10 +394,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>555</v>
+        <v>746</v>
       </c>
       <c r="C18">
-        <v>0.1840185672044754</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D18"/>
     </row>
@@ -433,10 +406,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>566</v>
+        <v>955</v>
       </c>
       <c r="C19">
-        <v>0.18766577541828156</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D19"/>
     </row>
@@ -445,10 +418,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>606</v>
+        <v>1010</v>
       </c>
       <c r="C20">
-        <v>0.20092837512493134</v>
+        <v>0.33388429880142212</v>
       </c>
       <c r="D20"/>
     </row>
@@ -457,10 +430,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>698</v>
+        <v>1169</v>
       </c>
       <c r="C21">
-        <v>0.23143236339092255</v>
+        <v>0.3864462673664093</v>
       </c>
       <c r="D21"/>
     </row>
@@ -469,10 +442,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1031</v>
+        <v>1235</v>
       </c>
       <c r="C22">
-        <v>0.34184351563453674</v>
+        <v>0.40826445817947388</v>
       </c>
       <c r="D22"/>
     </row>
@@ -481,10 +454,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1133</v>
+        <v>1306</v>
       </c>
       <c r="C23">
-        <v>0.37566313147544861</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D23"/>
     </row>
@@ -493,10 +466,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1260</v>
+        <v>1368</v>
       </c>
       <c r="C24">
-        <v>0.41777187585830688</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D24"/>
     </row>
@@ -505,10 +478,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1285</v>
+        <v>1428</v>
       </c>
       <c r="C25">
-        <v>0.4260610044002533</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D25"/>
     </row>
@@ -517,10 +490,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1472</v>
+        <v>1497</v>
       </c>
       <c r="C26">
-        <v>0.48806366324424744</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D26"/>
     </row>
@@ -529,10 +502,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1476</v>
+        <v>1796</v>
       </c>
       <c r="C27">
-        <v>0.48938992619514465</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D27"/>
     </row>
@@ -541,84 +514,12 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1553</v>
+        <v>2008</v>
       </c>
       <c r="C28">
-        <v>0.51492041349411011</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1660</v>
-      </c>
-      <c r="C29">
-        <v>0.55039787292480469</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1793</v>
-      </c>
-      <c r="C30">
-        <v>0.59449601173400879</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1798</v>
-      </c>
-      <c r="C31">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1817</v>
-      </c>
-      <c r="C32">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1859</v>
-      </c>
-      <c r="C33">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2217</v>
-      </c>
-      <c r="C34">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D34"/>
     </row>
   </sheetData>
 </worksheet>
@@ -626,87 +527,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
